--- a/notkunartilvik.xlsx
+++ b/notkunartilvik.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\runar\Desktop\verklegtnamskeid1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44986928-878C-4B78-8075-FA732AA530DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADADF434-CDF5-42F5-AB6E-840B46605BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" firstSheet="22" activeTab="22" xr2:uid="{142A57DF-2594-4C8B-B0E3-BEC92579047D}"/>
   </bookViews>
   <sheets>
     <sheet name="Starfsmannaskráning" sheetId="3" r:id="rId1"/>
@@ -21,6 +21,21 @@
     <sheet name="Birting upplýsinga um starfsm " sheetId="9" r:id="rId6"/>
     <sheet name="Breyting upplýsinga um starfsm" sheetId="8" r:id="rId7"/>
     <sheet name="Birting allra áfangastaða" sheetId="10" r:id="rId8"/>
+    <sheet name="Birting allra vinnuferða" sheetId="11" r:id="rId9"/>
+    <sheet name="Breyting upplýsinga um vinnufer" sheetId="12" r:id="rId10"/>
+    <sheet name="Birting ákveðinna vinnuferð (2)" sheetId="14" r:id="rId11"/>
+    <sheet name="Birting ákveðinna vinnuferða" sheetId="13" r:id="rId12"/>
+    <sheet name="Birting starfsmanna sem vinna e" sheetId="15" r:id="rId13"/>
+    <sheet name="Birting starfsmanna sem eru að " sheetId="16" r:id="rId14"/>
+    <sheet name="Birting vinnuferða ákveðins sta" sheetId="17" r:id="rId15"/>
+    <sheet name="Skráning flugvélar" sheetId="18" r:id="rId16"/>
+    <sheet name="Birting flugvéla sem tiltekinn " sheetId="19" r:id="rId17"/>
+    <sheet name="Birting stöðu vinnuferðar" sheetId="20" r:id="rId18"/>
+    <sheet name="Breyting upplýsinga tengiliðs" sheetId="21" r:id="rId19"/>
+    <sheet name="Birting flugvéla" sheetId="22" r:id="rId20"/>
+    <sheet name="Birting allra flugvéla" sheetId="23" r:id="rId21"/>
+    <sheet name="Birting allra flugvéla í notkun" sheetId="24" r:id="rId22"/>
+    <sheet name="Birting allra flugvéla í no (2)" sheetId="25" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -111,9 +126,6 @@
 </t>
   </si>
   <si>
-    <t>Kerfið birtir viðeigandi starfsmenn</t>
-  </si>
-  <si>
     <t>Krafa 10 í kröfulista</t>
   </si>
   <si>
@@ -133,13 +145,6 @@
   </si>
   <si>
     <t>Birting allra áfangastaða</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Notandi tengist viðmóti
-2. Notandi velur að skrá starfsmann
-3. Setja inn viðeigandi upplýsingar um starfsmann
-4. Staðfesta skráningu
-</t>
   </si>
   <si>
     <t>Breyting upplýsinga um starfsmann</t>
@@ -200,33 +205,291 @@
     <t>Valin vinnuferð endurtekur sig</t>
   </si>
   <si>
+    <t>Nýr áfangastaður er skráður í kerfinu</t>
+  </si>
+  <si>
+    <t>Nýr starfsmaður er skráður í kerfið</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti einn starfmaður er skráður í kerfið</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti einn áfangastaður er skráður í kerfið</t>
+  </si>
+  <si>
+    <t>Krafa 13 í kröfulista</t>
+  </si>
+  <si>
+    <t>Birting allra vinnuferða</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að birta allar vinnuferðir
+</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar vinnuferðir og viðeigandi upplýsingar</t>
+  </si>
+  <si>
+    <t>Krafa 16 í kröfulista</t>
+  </si>
+  <si>
+    <t>Breyting upplýsinga um vinnuferð</t>
+  </si>
+  <si>
+    <t>Skipuleggjari og Mannari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að breyta vinnuferð
+3. Notandi velur tiltekna vinnuferð til að breyta
+4. Notandi breytir upplýsingum um vinnuferð
+5. Notandi staðfestir breytingar
+</t>
+  </si>
+  <si>
+    <t>Krafa 17 í kröfulista</t>
+  </si>
+  <si>
+    <t>Birting ákveðinna vinnuferða</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar vinnuferðir sem eru á tilteknum degi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að birta vinnuferð
+3. Notandi setur inn dagsetningu
+</t>
+  </si>
+  <si>
+    <t>Krafa 18 í kröfulista</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar vinnuferðir sem eru á tiltekinni viku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að birta vinnuferð
+3. Notandi setur viku
+</t>
+  </si>
+  <si>
+    <t>Birting starfsmanna sem vinna ekki á tilteknum degi</t>
+  </si>
+  <si>
+    <t>Krafa 19 í kröfulista</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti einn starfsmaður er skráður í kerfið</t>
+  </si>
+  <si>
+    <t>Kerfið birtir alla starfsmenn sem eru ekki að vinna á tilteknum degi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að birta starfsmenn í fríi
+3. Notandi setur inn dagsetningu
+</t>
+  </si>
+  <si>
+    <t>Birting starfsmanna sem eru að vinna á tilteknum degi</t>
+  </si>
+  <si>
+    <t>Krafa 20 í kröfulista</t>
+  </si>
+  <si>
+    <t>Kerfið birtir alla starfsmenn sem eru að vinna á tilteknum degi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að birta starfsmenn
+3. Notandi velur að leita eftir ákveðnum degi
+4. Notandi setur inn dagsetningu
+</t>
+  </si>
+  <si>
+    <t>Birting vinnuferða ákveðins starfsmanns</t>
+  </si>
+  <si>
+    <t>Krafa 21 í kröfulista</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti einn starfsmaður og ein vinnuferð er skráð í kerfið</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar vinnuferðir tiltekins starfsmanns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að birta vinnuferðir
+3. Notandi velur að leita eftir ákveðnum starfsmanni
+4. Notandi setur inn dagsetningu
+</t>
+  </si>
+  <si>
+    <t>Krafa 22 í kröfulista</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Skráning flugvélar</t>
+  </si>
+  <si>
+    <t>Ný flugvél er skráð í kerfið</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að skrá flugvél
+3. Notandi setur inn viðeigandi upplýsingar
+4. Notandi staðfestir skráningu
+</t>
+  </si>
+  <si>
+    <t>4a. Vantar upplýsingar, skref 3 endurtekur sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að skrá starfsmann
+3. Notandi setur inn viðeigandi upplýsingar um starfsmann
+4. Notandi staðfestir skráningu
+</t>
+  </si>
+  <si>
+    <t>Krafa 24 í kröfulista</t>
+  </si>
+  <si>
+    <t>Birting flugmanna sem hafa leyfi til að fljúga tiltekinni flugvélategund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að birta flugmenn
+3. Notandi velur að leita eftir flugvélategund
+4. Notandi setur inn flugvélategund
+5. Notandi staðfestir leit
+</t>
+  </si>
+  <si>
+    <t>5a. Vantar upplýsingar, skref 4 endurtekur sig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerfið birtir tiltekinn starfsmenn ásamt viðeigandi upplýsingum </t>
+  </si>
+  <si>
     <t>1. Notandi tengist viðmóti
 2. Notandi velur að skrá vinnuferð
-3. Notandi velur starfsmenn fyrir ferðina
-4. Notandi setur inn nauðsynlegar upplýsingar
-5. Notandi staðfestir skráningu</t>
-  </si>
-  <si>
-    <t>3a. Enginn starfsmaður valinn, skref 4 fer í gang
-5a. Það vantar nauðsynlegar upplýsingar, skref 4 endurtekur sig</t>
-  </si>
-  <si>
-    <t>Krafa 3 og 6 í kröfulista</t>
-  </si>
-  <si>
-    <t>Nýr áfangastaður er skráður í kerfinu</t>
-  </si>
-  <si>
-    <t>Nýr starfsmaður er skráður í kerfið</t>
-  </si>
-  <si>
-    <t>Ný vinnuferð er skráð í kerfið</t>
-  </si>
-  <si>
-    <t>Að minnsta kosti einn starfmaður er skráður í kerfið</t>
-  </si>
-  <si>
-    <t>Að minnsta kosti einn áfangastaður er skráður í kerfið</t>
+3. Notandi velur flugvél fyrir ferðina
+4. Notandi velur starfsmenn fyrir ferðina
+5. Notandi setur inn nauðsynlegar upplýsingar
+6. Notandi staðfestir skráningu</t>
+  </si>
+  <si>
+    <t>4a. Enginn starfsmaður valinn, skref 5 fer í gang
+6a. Það vantar nauðsynlegar upplýsingar, skref 5 endurtekur sig</t>
+  </si>
+  <si>
+    <t>Ný vinnuferð sem hefur tvö flugnúmer er skráð í kerfið</t>
+  </si>
+  <si>
+    <t>Krafa 3, 6 og 28 í kröfulista</t>
+  </si>
+  <si>
+    <t>Krafa 32 í kröfulista</t>
+  </si>
+  <si>
+    <t>Birting stöðu vinnuferðar</t>
+  </si>
+  <si>
+    <t>Allir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að birta stöðu vinnuferðar
+3. Notandi setur inn vinnuferð
+4. Notandi staðfestir leit
+</t>
+  </si>
+  <si>
+    <t>Breyting upplýsinga tengiliðs</t>
+  </si>
+  <si>
+    <t>Krafa 33 í kröfulista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að breyta tengilið
+3. Notandi velur hvaða tengilið skal breyta
+4. Notandi setur inn nýjar tengiliðaupplýsingar
+5. Notandi staðfestir breytingar
+</t>
+  </si>
+  <si>
+    <t>Tengiliðaupplýsingum hefur verið breytt í kerfinu</t>
+  </si>
+  <si>
+    <t>Krafa 34 í kröfulista</t>
+  </si>
+  <si>
+    <t>Birting stöðu flugvéla</t>
+  </si>
+  <si>
+    <t>Að minnsta kosti ein flugvél er skráð í kerfið</t>
+  </si>
+  <si>
+    <t>Kerfið birtir stöðu allra flugvéla ásamt upplýsingum hverrar vélar miðað við innslátt notanda</t>
+  </si>
+  <si>
+    <t>Birting allra flugvéla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að birta allar flugvélar
+</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar flugvélar ásamt viðeigandi upplýsingum hverrar vélar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að birta stöðu flugvéla
+3. Notandi setur inn viðeigandi leitarupplýsingar
+4. Notandi staðfestir leit
+ </t>
+  </si>
+  <si>
+    <t>Að minnsta kosti ein flugvél er í notkun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að birta allar vélar í notkun
+</t>
+  </si>
+  <si>
+    <t>Birting allra flugvéla í notkun</t>
+  </si>
+  <si>
+    <t>Krafa 35, 36, 37 í kröfulista</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar flugvélar sem eru í notkun ásamt upplýsingum fyrir hverja vél og hvenær hver vél verður ekki lengur í notkun</t>
+  </si>
+  <si>
+    <t>Krafa 38 í kröfulista</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Birting allra flugvélategunda</t>
+  </si>
+  <si>
+    <t>Kerfið birtir allar flugvélategundir ásamt því hve margir flugmenn hafa leyfi til að fljúga hverri tegund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Notandi tengist viðmóti
+2. Notandi velur að birta allar flugvélategundir
+</t>
   </si>
 </sst>
 </file>
@@ -713,18 +976,18 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -736,7 +999,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -744,13 +1007,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -758,7 +1021,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -766,7 +1029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -774,7 +1037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -782,29 +1045,29 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -812,14 +1075,1102 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C13" s="16"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C14" s="16"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C15" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BC4184-8D5B-45FD-B058-7134DA41E050}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3F38BF-F0CF-4AC5-AAAE-EF7EE92E6006}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02CEB8E8-83E7-4D90-A1A3-D37E9E159C3D}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEF5D2F8-066D-44B0-B537-2BBAAFE23B7F}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE036FAD-60A4-48A5-96C2-C403E7333178}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{231267F6-EFFB-4BA3-A683-8225B2276740}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20C9C74-4566-4724-A059-8ABF00AA230A}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D327BEA4-E962-455D-934E-D0F8D61A457A}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB9FA9C-3236-4396-863E-D4EE78B6DC94}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BECA7B-4B29-48D8-BDFC-4C7C7F118440}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -834,15 +2185,15 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -854,7 +2205,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -862,13 +2213,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -876,7 +2227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -884,7 +2235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
@@ -892,7 +2243,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -900,35 +2251,469 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC4AB75-0A09-4C8C-9803-43F9037698DA}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07E361A-16B3-48BE-B282-C2DDBFC869EF}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F40F29-6CBA-43A1-BDDF-B9B2162317DB}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F928BAA-0619-4BA5-9ACA-6DD97D4E7BAE}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -940,18 +2725,18 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -963,7 +2748,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -971,13 +2756,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -985,7 +2770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -993,15 +2778,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1009,34 +2794,34 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1052,27 +2837,27 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1080,15 +2865,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1096,7 +2881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1104,15 +2889,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1120,31 +2905,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1160,18 +2945,18 @@
   <dimension ref="B2:H12"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +2968,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1191,13 +2976,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1205,7 +2990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1213,15 +2998,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1229,23 +3014,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1253,7 +3038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1272,27 +3057,27 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1300,13 +3085,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1314,7 +3099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1322,15 +3107,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1338,31 +3123,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1381,27 +3166,27 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1409,13 +3194,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1423,7 +3208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1431,15 +3216,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1447,36 +3232,36 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1488,31 +3273,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B244B51-B66A-4010-824A-7B2114DECC3C}">
   <dimension ref="B2:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1520,13 +3305,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1534,7 +3319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1542,15 +3327,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1558,31 +3343,138 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C11B42-44EC-466A-B35C-331ABBA7CBD1}">
+  <dimension ref="B2:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
